--- a/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Efna5-Ephb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Neutro</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -91,7 +94,7 @@
     <t>Ephb1</t>
   </si>
   <si>
-    <t>Neutro</t>
+    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T10"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +525,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H2">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I2">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J2">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.79745676147998</v>
+        <v>4.839814499999999</v>
       </c>
       <c r="N2">
-        <v>4.79745676147998</v>
+        <v>9.679628999999998</v>
       </c>
       <c r="O2">
-        <v>0.6627513430406067</v>
+        <v>0.6099383944911378</v>
       </c>
       <c r="P2">
-        <v>0.6627513430406067</v>
+        <v>0.5555826661207054</v>
       </c>
       <c r="Q2">
-        <v>1.837266524817267</v>
+        <v>1.870597983879</v>
       </c>
       <c r="R2">
-        <v>1.837266524817267</v>
+        <v>7.482391935515999</v>
       </c>
       <c r="S2">
-        <v>0.1531578610224876</v>
+        <v>0.1234377643828984</v>
       </c>
       <c r="T2">
-        <v>0.1531578610224876</v>
+        <v>0.09471904769236852</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +587,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H3">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I3">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J3">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K3">
         <v>1</v>
       </c>
       <c r="L3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M3">
-        <v>1.53391445187433</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N3">
-        <v>1.53391445187433</v>
+        <v>0.030173</v>
       </c>
       <c r="O3">
-        <v>0.2119047473760854</v>
+        <v>0.001267519046234872</v>
       </c>
       <c r="P3">
-        <v>0.2119047473760854</v>
+        <v>0.001731842799435809</v>
       </c>
       <c r="Q3">
-        <v>0.5874382645801556</v>
+        <v>0.003887308282</v>
       </c>
       <c r="R3">
-        <v>0.5874382645801556</v>
+        <v>0.023323849692</v>
       </c>
       <c r="S3">
-        <v>0.04896991637879387</v>
+        <v>0.0002565172463204389</v>
       </c>
       <c r="T3">
-        <v>0.04896991637879387</v>
+        <v>0.0002952548931391725</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,123 +649,123 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.38296677097106</v>
+        <v>0.386502</v>
       </c>
       <c r="H4">
-        <v>0.38296677097106</v>
+        <v>0.773004</v>
       </c>
       <c r="I4">
-        <v>0.2310940032498789</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J4">
-        <v>0.2310940032498789</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.9073266962869549</v>
+        <v>1.542577333333333</v>
       </c>
       <c r="N4">
-        <v>0.9073266962869549</v>
+        <v>4.627732</v>
       </c>
       <c r="O4">
-        <v>0.125343909583308</v>
+        <v>0.1944035545312231</v>
       </c>
       <c r="P4">
-        <v>0.125343909583308</v>
+        <v>0.2656184118887309</v>
       </c>
       <c r="Q4">
-        <v>0.3474759750928548</v>
+        <v>0.596209224488</v>
       </c>
       <c r="R4">
-        <v>0.3474759750928548</v>
+        <v>3.577255346928</v>
       </c>
       <c r="S4">
-        <v>0.0289662258485975</v>
+        <v>0.03934289163652859</v>
       </c>
       <c r="T4">
-        <v>0.0289662258485975</v>
+        <v>0.04528421161756303</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.522573029932645</v>
+        <v>0.386502</v>
       </c>
       <c r="H5">
-        <v>0.522573029932645</v>
+        <v>0.773004</v>
       </c>
       <c r="I5">
-        <v>0.3153367410215326</v>
+        <v>0.2023774294220003</v>
       </c>
       <c r="J5">
-        <v>0.3153367410215326</v>
+        <v>0.1704859662986497</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.79745676147998</v>
+        <v>1.542474</v>
       </c>
       <c r="N5">
-        <v>4.79745676147998</v>
+        <v>3.084948</v>
       </c>
       <c r="O5">
-        <v>0.6627513430406067</v>
+        <v>0.1943905319314043</v>
       </c>
       <c r="P5">
-        <v>0.6627513430406067</v>
+        <v>0.1770670791911279</v>
       </c>
       <c r="Q5">
-        <v>2.507021515817448</v>
+        <v>0.596169285948</v>
       </c>
       <c r="R5">
-        <v>2.507021515817448</v>
+        <v>2.384677143792</v>
       </c>
       <c r="S5">
-        <v>0.2089898486220687</v>
+        <v>0.03934025615625287</v>
       </c>
       <c r="T5">
-        <v>0.2089898486220687</v>
+        <v>0.03018745209557896</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +773,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H6">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I6">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J6">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.53391445187433</v>
+        <v>4.839814499999999</v>
       </c>
       <c r="N6">
-        <v>1.53391445187433</v>
+        <v>9.679628999999998</v>
       </c>
       <c r="O6">
-        <v>0.2119047473760854</v>
+        <v>0.6099383944911378</v>
       </c>
       <c r="P6">
-        <v>0.2119047473760854</v>
+        <v>0.5555826661207054</v>
       </c>
       <c r="Q6">
-        <v>0.801582322773441</v>
+        <v>3.3545802925975</v>
       </c>
       <c r="R6">
-        <v>0.801582322773441</v>
+        <v>20.127481755585</v>
       </c>
       <c r="S6">
-        <v>0.06682135244456595</v>
+        <v>0.2213633796944954</v>
       </c>
       <c r="T6">
-        <v>0.06682135244456595</v>
+        <v>0.2547923071612073</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,185 +835,185 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.522573029932645</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H7">
-        <v>0.522573029932645</v>
+        <v>2.079365</v>
       </c>
       <c r="I7">
-        <v>0.3153367410215326</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J7">
-        <v>0.3153367410215326</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K7">
         <v>1</v>
       </c>
       <c r="L7">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M7">
-        <v>0.9073266962869549</v>
+        <v>0.01005766666666667</v>
       </c>
       <c r="N7">
-        <v>0.9073266962869549</v>
+        <v>0.030173</v>
       </c>
       <c r="O7">
-        <v>0.125343909583308</v>
+        <v>0.001267519046234872</v>
       </c>
       <c r="P7">
-        <v>0.125343909583308</v>
+        <v>0.001731842799435809</v>
       </c>
       <c r="Q7">
-        <v>0.4741444608174508</v>
+        <v>0.006971186682777779</v>
       </c>
       <c r="R7">
-        <v>0.4741444608174508</v>
+        <v>0.06274068014500001</v>
       </c>
       <c r="S7">
-        <v>0.03952553995489799</v>
+        <v>0.0004600174418201366</v>
       </c>
       <c r="T7">
-        <v>0.03952553995489799</v>
+        <v>0.0007942296428897336</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>24</v>
+      </c>
+      <c r="C8" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" t="s">
         <v>22</v>
       </c>
-      <c r="B8" t="s">
-        <v>23</v>
-      </c>
-      <c r="C8" t="s">
-        <v>24</v>
-      </c>
-      <c r="D8" t="s">
-        <v>20</v>
-      </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H8">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I8">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J8">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>4.79745676147998</v>
+        <v>1.542577333333333</v>
       </c>
       <c r="N8">
-        <v>4.79745676147998</v>
+        <v>4.627732</v>
       </c>
       <c r="O8">
-        <v>0.6627513430406067</v>
+        <v>0.1944035545312231</v>
       </c>
       <c r="P8">
-        <v>0.6627513430406067</v>
+        <v>0.2656184118887309</v>
       </c>
       <c r="Q8">
-        <v>3.60601140019783</v>
+        <v>1.069193772242222</v>
       </c>
       <c r="R8">
-        <v>3.60601140019783</v>
+        <v>9.62274395018</v>
       </c>
       <c r="S8">
-        <v>0.3006036333960503</v>
+        <v>0.07055438425311321</v>
       </c>
       <c r="T8">
-        <v>0.3006036333960503</v>
+        <v>0.1218136059970634</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>25</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.7516506306323441</v>
+        <v>0.6931216666666667</v>
       </c>
       <c r="H9">
-        <v>0.7516506306323441</v>
+        <v>2.079365</v>
       </c>
       <c r="I9">
-        <v>0.4535692557285884</v>
+        <v>0.3629274393837356</v>
       </c>
       <c r="J9">
-        <v>0.4535692557285884</v>
+        <v>0.4586037734767113</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>1.53391445187433</v>
+        <v>1.542474</v>
       </c>
       <c r="N9">
-        <v>1.53391445187433</v>
+        <v>3.084948</v>
       </c>
       <c r="O9">
-        <v>0.2119047473760854</v>
+        <v>0.1943905319314043</v>
       </c>
       <c r="P9">
-        <v>0.2119047473760854</v>
+        <v>0.1770670791911279</v>
       </c>
       <c r="Q9">
-        <v>1.152967765087406</v>
+        <v>1.06912214967</v>
       </c>
       <c r="R9">
-        <v>1.152967765087406</v>
+        <v>6.41473289802</v>
       </c>
       <c r="S9">
-        <v>0.09611347855272562</v>
+        <v>0.07054965799430685</v>
       </c>
       <c r="T9">
-        <v>0.09611347855272562</v>
+        <v>0.08120363067555092</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,61 +1021,495 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H10">
+        <v>0.064151</v>
+      </c>
+      <c r="I10">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J10">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K10">
+        <v>2</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>4.839814499999999</v>
+      </c>
+      <c r="N10">
+        <v>9.679628999999998</v>
+      </c>
+      <c r="O10">
+        <v>0.6099383944911378</v>
+      </c>
+      <c r="P10">
+        <v>0.5555826661207054</v>
+      </c>
+      <c r="Q10">
+        <v>0.1034929799965</v>
+      </c>
+      <c r="R10">
+        <v>0.6209578799789999</v>
+      </c>
+      <c r="S10">
+        <v>0.006829335961113884</v>
+      </c>
+      <c r="T10">
+        <v>0.007860660007597805</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>24</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H11">
+        <v>0.064151</v>
+      </c>
+      <c r="I11">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J11">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K11">
+        <v>1</v>
+      </c>
+      <c r="L11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M11">
+        <v>0.01005766666666667</v>
+      </c>
+      <c r="N11">
+        <v>0.030173</v>
+      </c>
+      <c r="O11">
+        <v>0.001267519046234872</v>
+      </c>
+      <c r="P11">
+        <v>0.001731842799435809</v>
+      </c>
+      <c r="Q11">
+        <v>0.0002150697914444444</v>
+      </c>
+      <c r="R11">
+        <v>0.001935628123</v>
+      </c>
+      <c r="S11">
+        <v>1.419211100994947E-05</v>
+      </c>
+      <c r="T11">
+        <v>2.450297365831362E-05</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D12" t="s">
+        <v>22</v>
+      </c>
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="F12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G12">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H12">
+        <v>0.064151</v>
+      </c>
+      <c r="I12">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J12">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>1</v>
+      </c>
+      <c r="M12">
+        <v>1.542577333333333</v>
+      </c>
+      <c r="N12">
+        <v>4.627732</v>
+      </c>
+      <c r="O12">
+        <v>0.1944035545312231</v>
+      </c>
+      <c r="P12">
+        <v>0.2656184118887309</v>
+      </c>
+      <c r="Q12">
+        <v>0.03298595950355555</v>
+      </c>
+      <c r="R12">
+        <v>0.296873635532</v>
+      </c>
+      <c r="S12">
+        <v>0.002176690626331339</v>
+      </c>
+      <c r="T12">
+        <v>0.003758101458049746</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C10" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02138366666666667</v>
+      </c>
+      <c r="H13">
+        <v>0.064151</v>
+      </c>
+      <c r="I13">
+        <v>0.011196763513816</v>
+      </c>
+      <c r="J13">
+        <v>0.01414849758089826</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.542474</v>
+      </c>
+      <c r="N13">
+        <v>3.084948</v>
+      </c>
+      <c r="O13">
+        <v>0.1943905319314043</v>
+      </c>
+      <c r="P13">
+        <v>0.1770670791911279</v>
+      </c>
+      <c r="Q13">
+        <v>0.032983749858</v>
+      </c>
+      <c r="R13">
+        <v>0.197902499148</v>
+      </c>
+      <c r="S13">
+        <v>0.002176544815360833</v>
+      </c>
+      <c r="T13">
+        <v>0.002505233141592393</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D10" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>0.8088005</v>
+      </c>
+      <c r="H14">
+        <v>1.617601</v>
+      </c>
+      <c r="I14">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J14">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K14">
+        <v>2</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>4.839814499999999</v>
+      </c>
+      <c r="N14">
+        <v>9.679628999999998</v>
+      </c>
+      <c r="O14">
+        <v>0.6099383944911378</v>
+      </c>
+      <c r="P14">
+        <v>0.5555826661207054</v>
+      </c>
+      <c r="Q14">
+        <v>3.914444387507249</v>
+      </c>
+      <c r="R14">
+        <v>15.657777550029</v>
+      </c>
+      <c r="S14">
+        <v>0.2583079144526301</v>
+      </c>
+      <c r="T14">
+        <v>0.1982106512595317</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>26</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>0.8088005</v>
+      </c>
+      <c r="H15">
+        <v>1.617601</v>
+      </c>
+      <c r="I15">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J15">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K15">
+        <v>1</v>
+      </c>
+      <c r="L15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M15">
+        <v>0.01005766666666667</v>
+      </c>
+      <c r="N15">
+        <v>0.030173</v>
+      </c>
+      <c r="O15">
+        <v>0.001267519046234872</v>
+      </c>
+      <c r="P15">
+        <v>0.001731842799435809</v>
+      </c>
+      <c r="Q15">
+        <v>0.008134645828833333</v>
+      </c>
+      <c r="R15">
+        <v>0.048807874973</v>
+      </c>
+      <c r="S15">
+        <v>0.0005367922470843466</v>
+      </c>
+      <c r="T15">
+        <v>0.0006178552897485894</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="H10">
-        <v>0.7516506306323441</v>
-      </c>
-      <c r="I10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="J10">
-        <v>0.4535692557285884</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>0.9073266962869549</v>
-      </c>
-      <c r="N10">
-        <v>0.9073266962869549</v>
-      </c>
-      <c r="O10">
-        <v>0.125343909583308</v>
-      </c>
-      <c r="P10">
-        <v>0.125343909583308</v>
-      </c>
-      <c r="Q10">
-        <v>0.6819926834536509</v>
-      </c>
-      <c r="R10">
-        <v>0.6819926834536509</v>
-      </c>
-      <c r="S10">
-        <v>0.05685214377981247</v>
-      </c>
-      <c r="T10">
-        <v>0.05685214377981247</v>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>0.8088005</v>
+      </c>
+      <c r="H16">
+        <v>1.617601</v>
+      </c>
+      <c r="I16">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J16">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>1.542577333333333</v>
+      </c>
+      <c r="N16">
+        <v>4.627732</v>
+      </c>
+      <c r="O16">
+        <v>0.1944035545312231</v>
+      </c>
+      <c r="P16">
+        <v>0.2656184118887309</v>
+      </c>
+      <c r="Q16">
+        <v>1.247637318488667</v>
+      </c>
+      <c r="R16">
+        <v>7.485823910932</v>
+      </c>
+      <c r="S16">
+        <v>0.08232958801524996</v>
+      </c>
+      <c r="T16">
+        <v>0.09476249281605474</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>2</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>0.8088005</v>
+      </c>
+      <c r="H17">
+        <v>1.617601</v>
+      </c>
+      <c r="I17">
+        <v>0.4234983676804481</v>
+      </c>
+      <c r="J17">
+        <v>0.3567617626437406</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>1.542474</v>
+      </c>
+      <c r="N17">
+        <v>3.084948</v>
+      </c>
+      <c r="O17">
+        <v>0.1943905319314043</v>
+      </c>
+      <c r="P17">
+        <v>0.1770670791911279</v>
+      </c>
+      <c r="Q17">
+        <v>1.247553742437</v>
+      </c>
+      <c r="R17">
+        <v>4.990214969748</v>
+      </c>
+      <c r="S17">
+        <v>0.08232407296548375</v>
+      </c>
+      <c r="T17">
+        <v>0.06317076327840558</v>
       </c>
     </row>
   </sheetData>
